--- a/medicine/Mort/Cimetière_parisien_de_Saint-Ouen/Cimetière_parisien_de_Saint-Ouen.xlsx
+++ b/medicine/Mort/Cimetière_parisien_de_Saint-Ouen/Cimetière_parisien_de_Saint-Ouen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Saint-Ouen</t>
+          <t>Cimetière_parisien_de_Saint-Ouen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière parisien de Saint-Ouen est un des cimetières parisiens extra muros. Il est situé dans la commune de Saint-Ouen-sur-Seine dans le département de la Seine-Saint-Denis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Saint-Ouen</t>
+          <t>Cimetière_parisien_de_Saint-Ouen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sis avenue Michelet, il est constitué de deux parties : la première, située au-delà de la rue Adrien-Lesesne, a été ouverte en 1860, et la seconde en 1872.
-L'aménagement de la partie neuve du cimetière a entrainé le détournement du chemin des Poissonniers qui marquait la limite entre les communes de Saint-Ouen et Saint-Denis. De ce fait la partie nord-est du cimetière se trouvait sur la commune de Saint-Denis jusqu'à ce que les limites actuelles entre les deux communes soient fixées au milieu du XXe siècle sur le nouvel itinéraire de la rue[1].
-Le 30 janvier 1918, durant la Première Guerre mondiale, une bombe lancée d'un avion allemand explose dans le cimetière parisien de Saint-Ouen[2].
-Dans la nuit du 20 au 21 avril 1944, le cimetière est touché par un bombardement aérien allié visant le dépôt de La Chapelle. La tombe d'Alphonse Allais est pulvérisée[3].
+L'aménagement de la partie neuve du cimetière a entrainé le détournement du chemin des Poissonniers qui marquait la limite entre les communes de Saint-Ouen et Saint-Denis. De ce fait la partie nord-est du cimetière se trouvait sur la commune de Saint-Denis jusqu'à ce que les limites actuelles entre les deux communes soient fixées au milieu du XXe siècle sur le nouvel itinéraire de la rue.
+Le 30 janvier 1918, durant la Première Guerre mondiale, une bombe lancée d'un avion allemand explose dans le cimetière parisien de Saint-Ouen.
+Dans la nuit du 20 au 21 avril 1944, le cimetière est touché par un bombardement aérien allié visant le dépôt de La Chapelle. La tombe d'Alphonse Allais est pulvérisée.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Saint-Ouen</t>
+          <t>Cimetière_parisien_de_Saint-Ouen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Personnalités inhumées au cimetière parisien de Saint-Ouen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Henri Albers (1866-1926)
-Alphonse Allais (1854-1905), écrivain[4]
+Alphonse Allais (1854-1905), écrivain
 Jenny Alpha (1910-2010), artiste doyenne des comédiennes françaises
 Andrex (André Jaubert 1907-1989), chanteur
-Mireille Balin (1909-1968), actrice[5],[4]
+Mireille Balin (1909-1968), actrice,
 Ginette Baudin (1921-1971), actrice
 Léon Belières (1880-1952) acteur
 Gabrielle Berrhagorry-Suair (1866-1942) peintre
@@ -598,14 +614,14 @@
 John O'Sullivan (1877-1955), ténor irlandais
 Jean-Baptiste Olive (1848-1936), peintre marseillais
 Roger Pierre (1923-2010), comédien et humoriste
-Xavier Privas (Antoine Paul Taravel : 1863-1927), chansonnier[4]
+Xavier Privas (Antoine Paul Taravel : 1863-1927), chansonnier
 Antoine Renard (1825-1872), artiste lyrique
 Rafael Ruiz (1908-1998) contrebassiste et fan d’opéra cubain
 Jane Sourza (1902-1969), actrice (9e division)
 Jean-Marie Straub (1933-2022), réalisateur (15e division)
 Émile-Alexandre Taskin (1853-1897), chanteur de l'Opéra Comique
 Jean Tissier (1896-1973), comédien
-Suzanne Valadon (1865-1938) et André Utter (1886-1948)[4], peintres</t>
+Suzanne Valadon (1865-1938) et André Utter (1886-1948), peintres</t>
         </is>
       </c>
     </row>
